--- a/data/trans_dic/P21D_4_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_4_R-Habitat-trans_dic.xlsx
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01288594243291444</v>
+        <v>0.0117382027650415</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01187657685540246</v>
+        <v>0.0102885372003655</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.007250228245417905</v>
+        <v>0.006584709564129544</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.008865053759915687</v>
+        <v>0.008865053759915689</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.004581008228638425</v>
@@ -637,10 +637,10 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.004113238984348417</v>
+        <v>0.003581760672952351</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001720702940220939</v>
+        <v>0.001891825239073591</v>
       </c>
     </row>
     <row r="9">
@@ -652,10 +652,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.01820240207142505</v>
+        <v>0.01747569663401029</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.009196891356071098</v>
+        <v>0.009250496674552718</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.002641470386180296</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.004869471767675994</v>
+        <v>0.004869471767675995</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.003757639835831509</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001352364642074749</v>
+        <v>0.00134910764525235</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0009627312671510384</v>
+        <v>0.000932294923450423</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01364430107725905</v>
+        <v>0.01104063277481415</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01476821255373633</v>
+        <v>0.01640569367614551</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01007295441736542</v>
+        <v>0.009250866714899775</v>
       </c>
     </row>
     <row r="13">
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006907171856220084</v>
+        <v>0.007435382371835319</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005360807436046732</v>
+        <v>0.005172765153241741</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01319943116286864</v>
+        <v>0.01484708887642751</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02921218560728855</v>
+        <v>0.02821232312984121</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0178681722428159</v>
+        <v>0.01817768647419039</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0007177390548879274</v>
+        <v>0.0004214788799540828</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00538517488020119</v>
+        <v>0.005319653471980081</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003544061730353377</v>
+        <v>0.00352901250015687</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.005644887167911478</v>
+        <v>0.005370324198052581</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.013396874165951</v>
+        <v>0.01318302217112902</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.008180528001902191</v>
+        <v>0.008032887308279724</v>
       </c>
     </row>
     <row r="19">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3713</v>
+        <v>3382</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3842</v>
+        <v>3328</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4434</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="8">
@@ -1035,10 +1035,10 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>2068</v>
+        <v>1801</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1674</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="11">
@@ -1050,10 +1050,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>9152</v>
+        <v>8787</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8949</v>
+        <v>9001</v>
       </c>
     </row>
     <row r="12">
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>727</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5138</v>
+        <v>4158</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5583</v>
+        <v>6202</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7601</v>
+        <v>6981</v>
       </c>
     </row>
     <row r="16">
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3385</v>
+        <v>3643</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4950</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="19">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5720</v>
+        <v>6434</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14314</v>
+        <v>13824</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16499</v>
+        <v>16785</v>
       </c>
     </row>
     <row r="20">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1126</v>
+        <v>661</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9125</v>
+        <v>9013</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11563</v>
+        <v>11514</v>
       </c>
     </row>
     <row r="23">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8853</v>
+        <v>8422</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22699</v>
+        <v>22337</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26690</v>
+        <v>26208</v>
       </c>
     </row>
     <row r="24">
